--- a/src/assets/Template Excel/Layout_Machine_Curing.xlsx
+++ b/src/assets/Template Excel/Layout_Machine_Curing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Worktools SRI\Frontend\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F727F-B1A6-4C38-B68D-42BF059EA14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A96C0C9-B9F3-49C3-9E08-60C7D78C6227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D4E24566-28FA-4AA5-9A09-B67181C9F8D8}"/>
   </bookViews>
@@ -47,13 +47,13 @@
     <t>WORK CENTER TEXT</t>
   </si>
   <si>
-    <t>BUILDING_ID</t>
-  </si>
-  <si>
     <t>STATUS USAGE</t>
   </si>
   <si>
     <t>NOMOR</t>
+  </si>
+  <si>
+    <t>BUILDING_NAME</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,13 +515,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
